--- a/Time schedule - Ramon  .xlsx
+++ b/Time schedule - Ramon  .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramongonzalezordaz/Desktop/Desktop Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B82892-E9D3-374F-89AD-D528A6E95F05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4231DF6B-B18B-4B45-9EFC-CCAF7B004B5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="12380" xr2:uid="{23D802BE-C2F2-47E1-AC02-DBB2F2D9C8A6}"/>
+    <workbookView xWindow="0" yWindow="2800" windowWidth="28800" windowHeight="12380" xr2:uid="{23D802BE-C2F2-47E1-AC02-DBB2F2D9C8A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA20434D-4854-4F13-96EF-30E8BAB1A6E6}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1005,10 +1005,14 @@
       </c>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="U6" s="12">
+        <v>5</v>
+      </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="X6" s="12">
+        <v>2</v>
+      </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
@@ -1089,10 +1093,14 @@
       </c>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="U8" s="12">
+        <v>4</v>
+      </c>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="X8" s="12">
+        <v>2</v>
+      </c>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
     </row>
@@ -1243,10 +1251,14 @@
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="U12" s="20">
+        <v>5</v>
+      </c>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
+      <c r="X12" s="20">
+        <v>1</v>
+      </c>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
     </row>
@@ -1451,7 +1463,8 @@
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
       <c r="U20" s="24">
-        <v>0</v>
+        <f>SUM(U6:W19)</f>
+        <v>14</v>
       </c>
       <c r="V20" s="24"/>
       <c r="W20" s="24"/>
